--- a/data/trans_bre/P17G_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P17G_R2-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.05336479490057541</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.816665236387075</v>
+        <v>0.8166652363870757</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1313395303252824</v>
@@ -649,7 +649,7 @@
         <v>-0.01110427064827583</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1571208164873232</v>
+        <v>0.1571208164873233</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.289528619164218</v>
+        <v>-3.043136037178555</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.673023837603544</v>
+        <v>-1.58365688129489</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.707237532627717</v>
+        <v>-3.141400363371201</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.773224508175069</v>
+        <v>-2.040462764471317</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6335004904501977</v>
+        <v>-0.6112738395862203</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4541646856288343</v>
+        <v>-0.4061367767942014</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5495006335332099</v>
+        <v>-0.5122528758997165</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2856396522760122</v>
+        <v>-0.2979996625780429</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.413935485317007</v>
+        <v>2.323117943935802</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.463051118087302</v>
+        <v>4.307112613691043</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.897362751744203</v>
+        <v>3.16681222068366</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.66397080341396</v>
+        <v>3.354350028015284</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9456877009715556</v>
+        <v>0.938941907521363</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.290608936503494</v>
+        <v>2.086268196737695</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.807730980740747</v>
+        <v>1.044517972676486</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9602887546374627</v>
+        <v>0.9058552323293579</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>-0.4885428471178813</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2799829674429022</v>
+        <v>0.2799829674429025</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.021971575279475</v>
+        <v>-0.9776129041397708</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.238753133629167</v>
+        <v>-5.047714844955806</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.667486516995219</v>
+        <v>-4.729857521539654</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.563338226590597</v>
+        <v>-1.574081930355466</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5462252276506717</v>
+        <v>-0.5170729088664736</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7787163280572302</v>
+        <v>-0.7987439865304993</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7975140312645193</v>
+        <v>-0.8209717229535023</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.312845046591012</v>
+        <v>-0.310234092626526</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.286002175565975</v>
+        <v>3.274113618595909</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.558945866582361</v>
+        <v>0.9088561832421679</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3659832428503202</v>
+        <v>0.4417599407433067</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.523871773818521</v>
+        <v>3.298128720456421</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.989614787439625</v>
+        <v>4.220678260089447</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6265094974393117</v>
+        <v>0.39071919496342</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2842192140333308</v>
+        <v>0.2258493772905479</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.34783792741991</v>
+        <v>1.26579535601183</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.7334416530295653</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.098432333540203</v>
+        <v>2.098432333540204</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7488402598280651</v>
@@ -849,7 +849,7 @@
         <v>0.6011948419020499</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5.393060452997084</v>
+        <v>5.393060452997086</v>
       </c>
     </row>
     <row r="11">
@@ -860,26 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.854499261747552</v>
+        <v>-1.037645484558966</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.05230759067456263</v>
+        <v>0.03605862582735752</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.30699761296573</v>
+        <v>-0.9881733378414739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6119718008050742</v>
+        <v>0.4725009682405478</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5815951804512814</v>
+        <v>-0.6844950379973952</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3034061557624244</v>
+        <v>-0.03121175510462171</v>
       </c>
     </row>
     <row r="12">
@@ -890,23 +890,23 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.708153274808467</v>
+        <v>4.542878157114841</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.48965288517699</v>
+        <v>3.479224180207916</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.138882890198181</v>
+        <v>3.729802907624078</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.365063005872482</v>
+        <v>4.271379769927133</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.145846723541301</v>
+        <v>5.631809848626605</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>5.763051249518094</v>
+        <v>9.85767604803369</v>
       </c>
       <c r="J12" s="6" t="inlineStr"/>
     </row>
@@ -931,7 +931,7 @@
         <v>0.6029481905002002</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02961772899955327</v>
+        <v>0.02961772899955344</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5015722752919403</v>
@@ -943,7 +943,7 @@
         <v>0.6644021615756377</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.02919030322293035</v>
+        <v>0.02919030322293052</v>
       </c>
     </row>
     <row r="14">
@@ -954,26 +954,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4510899439987423</v>
+        <v>-0.4623546921694545</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.2452260053255961</v>
+        <v>-0.2470505763193698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.4360032335942441</v>
+        <v>-0.3850115055097779</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.984153620918257</v>
+        <v>-0.9960366946925792</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3939491104898132</v>
+        <v>-0.3938220875340893</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.453628641460147</v>
+        <v>-0.3692884233783601</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6364973951623641</v>
+        <v>-0.649727996784076</v>
       </c>
     </row>
     <row r="15">
@@ -984,26 +984,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.763274279857888</v>
+        <v>1.607996659435642</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6223069174035988</v>
+        <v>0.5807267926788287</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.805545546730519</v>
+        <v>1.759490679251197</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.052897962406251</v>
+        <v>0.9794359778555974</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.162902491768844</v>
+        <v>2.702275306351486</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>3.993736168531637</v>
+        <v>3.575717540422489</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.56749361713641</v>
+        <v>1.938361126186571</v>
       </c>
     </row>
     <row r="16">
@@ -1027,7 +1027,7 @@
         <v>0.2450027838704641</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6679755448873587</v>
+        <v>0.6679755448873589</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3971979177471949</v>
@@ -1041,7 +1041,7 @@
         <v>0.2852185018367487</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>4.725573873687652</v>
+        <v>4.725573873687653</v>
       </c>
     </row>
     <row r="17">
@@ -1052,21 +1052,21 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7233886856432408</v>
+        <v>-0.7624434608662124</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8757938788895069</v>
+        <v>-0.8308354087481991</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1304997493226164</v>
+        <v>0.1503147957554284</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="inlineStr"/>
       <c r="I17" s="6" t="n">
-        <v>-0.668441336763558</v>
+        <v>-0.6825578105504045</v>
       </c>
       <c r="J17" s="6" t="inlineStr"/>
     </row>
@@ -1078,21 +1078,21 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.311656880076173</v>
+        <v>1.264649741654408</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9872335714957624</v>
+        <v>0.9902975557021289</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.452091944417659</v>
+        <v>1.432526562280062</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.226999996004047</v>
+        <v>1.233607631289489</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>5.419642806458406</v>
+        <v>5.476741585899486</v>
       </c>
       <c r="J18" s="6" t="inlineStr"/>
     </row>
@@ -1117,7 +1117,7 @@
         <v>0.5891749192018054</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1294114868670405</v>
+        <v>0.1294114868670404</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>3.694196307817482</v>
@@ -1129,7 +1129,7 @@
         <v>0.5839955464561168</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1003707617551515</v>
+        <v>0.1003707617551514</v>
       </c>
     </row>
     <row r="20">
@@ -1140,23 +1140,23 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05970086357880688</v>
+        <v>0.09971386262608362</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.125871885679811</v>
+        <v>-4.138117788204672</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.03369907068336</v>
+        <v>-1.29722827014325</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-5.112038623530245</v>
+        <v>-5.411976097400571</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.8531316355981543</v>
+        <v>-0.8572251377753526</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6001311870967443</v>
+        <v>-0.6318726776816784</v>
       </c>
       <c r="J20" s="6" t="inlineStr"/>
     </row>
@@ -1168,23 +1168,23 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.816336384366664</v>
+        <v>1.820442613554433</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3876881990583324</v>
+        <v>0.3484357317008562</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.733035570107083</v>
+        <v>1.771944680084307</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.752267591702776</v>
+        <v>1.703862410843849</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>0.5629088158814618</v>
+        <v>0.4996892614520327</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.876556240841438</v>
+        <v>5.495578735631199</v>
       </c>
       <c r="J21" s="6" t="inlineStr"/>
     </row>
@@ -1232,28 +1232,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4648536610646496</v>
+        <v>-0.4194618408198684</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6492870924028692</v>
+        <v>-0.6312849090383316</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6510007721040986</v>
+        <v>-0.6373852864883359</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2749527917138793</v>
+        <v>-0.3147423420642714</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2698574240365789</v>
+        <v>-0.2445339931052861</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4183591979834963</v>
+        <v>-0.3979904139051111</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2886878111495363</v>
+        <v>-0.3068774908798287</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.123379516891556</v>
+        <v>-0.1450498608128912</v>
       </c>
     </row>
     <row r="24">
@@ -1264,28 +1264,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7929540763932861</v>
+        <v>0.7969767419956836</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.505149432318313</v>
+        <v>0.5229510721350414</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6752863713030346</v>
+        <v>0.7205308818411431</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.05913070172545</v>
+        <v>0.9766379395608595</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6787173611884442</v>
+        <v>0.7189874391921564</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5188212626418794</v>
+        <v>0.5346601195135918</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4562097948817238</v>
+        <v>0.5007051508100604</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7514332494782058</v>
+        <v>0.6540370945148934</v>
       </c>
     </row>
     <row r="25">
